--- a/Layout das Tabelas/Apuração Turma Online.xlsx
+++ b/Layout das Tabelas/Apuração Turma Online.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="V_ALOCACAO_PROFESSOR" sheetId="1" r:id="rId1"/>
     <sheet name="TURMA" sheetId="2" r:id="rId2"/>
+    <sheet name="CONSOLIDACAO_HORISTA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="331">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -831,13 +832,190 @@
   </si>
   <si>
     <t>Indica se a Frequência da Turma foi lançada no sistema : 1 - Não Lançada, 2-Lançada Parcialmente, 3-Lançada Totalm ente (não transferida para a tabela aluno_turma), 4-Transferida para a tabela aluno_turma.</t>
+  </si>
+  <si>
+    <t>COD_TIPO_CURSO</t>
+  </si>
+  <si>
+    <t>DT_INICIO_ATUACAO</t>
+  </si>
+  <si>
+    <t>DT_FIM_ATUACAO</t>
+  </si>
+  <si>
+    <t>COD_CURSO_EXTENSAO</t>
+  </si>
+  <si>
+    <t>NUMBER(12.2)</t>
+  </si>
+  <si>
+    <t>NUMBER(6.2)</t>
+  </si>
+  <si>
+    <t>NUMBER(8.2)</t>
+  </si>
+  <si>
+    <t>COD_CONTA_CORRENTE</t>
+  </si>
+  <si>
+    <t>COD_CONTA_CORRENTE_DV</t>
+  </si>
+  <si>
+    <t>COD_TIPO_RUBRICA</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_ATUACAO</t>
+  </si>
+  <si>
+    <t>IND_PROPORCIONAL</t>
+  </si>
+  <si>
+    <t>COD_TIPO_ATUACAO</t>
+  </si>
+  <si>
+    <t>IND_CR_APOIO</t>
+  </si>
+  <si>
+    <t>IND_FIXO_VARIAVEL</t>
+  </si>
+  <si>
+    <t>IND_AUTORIZACAO</t>
+  </si>
+  <si>
+    <t>NOM_PROCESSO</t>
+  </si>
+  <si>
+    <t>QTD_HORAS_TRABALHADAS</t>
+  </si>
+  <si>
+    <t>VALOR_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>QTDE_HORA_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>COD_VERBA_RH</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>COD_CENTRO_RESULTADO</t>
+  </si>
+  <si>
+    <t>IND_SITUACAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>FLAG_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_APTO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DT_ALOCACAO_DIA</t>
+  </si>
+  <si>
+    <t>IND_SUBSTITUICAO</t>
+  </si>
+  <si>
+    <t>IND_SITUACAO_GRUPO</t>
+  </si>
+  <si>
+    <t>IND_CURSO_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DT_GERACAO</t>
+  </si>
+  <si>
+    <t>DT_GERACAO_DESCONTO</t>
+  </si>
+  <si>
+    <t>COD_TURMA_EXTENSAO</t>
+  </si>
+  <si>
+    <t>NUMBER(12)</t>
+  </si>
+  <si>
+    <t>DT_SOLICITACAO_DESCONTO</t>
+  </si>
+  <si>
+    <t>VAL_A_PAGAR</t>
+  </si>
+  <si>
+    <t>COD_SITUACAO_TURMA_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DT_MES_ANO</t>
+  </si>
+  <si>
+    <t>QTD_VAGAS_PREENCHIDAS</t>
+  </si>
+  <si>
+    <t>QTD_VAGAS_OCUPADAS</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_FALTA</t>
+  </si>
+  <si>
+    <t>IND_FALTA</t>
+  </si>
+  <si>
+    <t>IND_FALTA_RETROATIVA</t>
+  </si>
+  <si>
+    <t>IND_ABONO_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_PAGAR_FALTA_RET</t>
+  </si>
+  <si>
+    <t>CONTRATO_PROFESSOR</t>
+  </si>
+  <si>
+    <t>IND_ABONO</t>
+  </si>
+  <si>
+    <t>IND_PAGAR_ABONO_RET</t>
+  </si>
+  <si>
+    <t>IND_REPOSICAO</t>
+  </si>
+  <si>
+    <t>IND_GERA_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>V_OCORRENCIA</t>
+  </si>
+  <si>
+    <t>VAL_COMPOSICAO</t>
+  </si>
+  <si>
+    <t>DT_INI_VIGENCIA</t>
+  </si>
+  <si>
+    <t>DT_FIM_VIGENCIA</t>
+  </si>
+  <si>
+    <t>IND_PAGAMENTO_RETROATIVIDADE</t>
+  </si>
+  <si>
+    <t>QTD_HORA_AD_NOT_DIA</t>
+  </si>
+  <si>
+    <t>QTD_HORA_DIA</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>TIPO_INFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +1052,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -907,14 +1107,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -926,10 +1127,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3741,4 +3974,1195 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E106"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>